--- a/data/NMA_Tool.xlsx
+++ b/data/NMA_Tool.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="NMA_Tool" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NMA_Tool!$N$1:$N$241</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1699,9 +1702,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -23954,6 +23965,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="N1:N241"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/NMA_Tool.xlsx
+++ b/data/NMA_Tool.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birolsenturk/Projects/TO1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6D1E9C5-70D3-DD43-A309-CA0F7223106B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="440" windowWidth="27980" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="440" windowWidth="27980" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NMA_Tool" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NMA_Tool!$N$1:$N$241</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5141" uniqueCount="528">
   <si>
     <t>Study_Author</t>
   </si>
@@ -1386,12 +1387,240 @@
   </si>
   <si>
     <t>Tejero 2008 no pmid</t>
+  </si>
+  <si>
+    <t>Acupuncture</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>QoL</t>
+  </si>
+  <si>
+    <t>Bladder support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1+T4 </t>
+  </si>
+  <si>
+    <t>Bladder training, PFMT</t>
+  </si>
+  <si>
+    <t>Education, bladder training, PFMT</t>
+  </si>
+  <si>
+    <t>Education, weight loss</t>
+  </si>
+  <si>
+    <t>Electroacupuncture</t>
+  </si>
+  <si>
+    <t>PFMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4+T6 </t>
+  </si>
+  <si>
+    <t>PFMT, biofeedback</t>
+  </si>
+  <si>
+    <t>PFMT, weights</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Magnetic simulation</t>
+  </si>
+  <si>
+    <t>TENS</t>
+  </si>
+  <si>
+    <t>TENS, PFMT</t>
+  </si>
+  <si>
+    <t>TENS, PFMT, biofeedback</t>
+  </si>
+  <si>
+    <t>Intravesical pressure release device</t>
+  </si>
+  <si>
+    <t>Bladder training</t>
+  </si>
+  <si>
+    <t>Bladder training, PFMT, biofeedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1+T2+T4 </t>
+  </si>
+  <si>
+    <t>Education, bladder training, PFMT (Group training)</t>
+  </si>
+  <si>
+    <t>Education, bladder training, PFMT (Individual training)</t>
+  </si>
+  <si>
+    <t>Education, PFMT</t>
+  </si>
+  <si>
+    <t>Education, PFMT, bladder training</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Education, PFMT, bladder training, TENS</t>
+  </si>
+  <si>
+    <t>Education, bladder training</t>
+  </si>
+  <si>
+    <t>MBSR</t>
+  </si>
+  <si>
+    <t>Group PFMT</t>
+  </si>
+  <si>
+    <t>Individual PFMT</t>
+  </si>
+  <si>
+    <t>Home PFMT, supervised PFMT</t>
+  </si>
+  <si>
+    <t>Home PFMT, unsupervised PFMT</t>
+  </si>
+  <si>
+    <t>Physiotherapy (incl. Paula group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4+T9 </t>
+  </si>
+  <si>
+    <t>PFMT, biofeedback (supervised)</t>
+  </si>
+  <si>
+    <t>PFMT, biofeedback (unsupervised,)</t>
+  </si>
+  <si>
+    <t>InterStim (continuous)</t>
+  </si>
+  <si>
+    <t>InterStim (cyclic)</t>
+  </si>
+  <si>
+    <t>Education, PFMT, Bladder training, TENS</t>
+  </si>
+  <si>
+    <t>TENS, weights</t>
+  </si>
+  <si>
+    <t>TENS, PFMT, functional Electrical Stimulation</t>
+  </si>
+  <si>
+    <t>Electroacupunture</t>
+  </si>
+  <si>
+    <t>TENS, PFMT, biofeedback (supine position, electrical stimulation)</t>
+  </si>
+  <si>
+    <t>TENS, PFMT, biofeedback (supine and upright, vaginal cones)</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Fesoterodine</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Oxybutynin</t>
+  </si>
+  <si>
+    <t>Tolterodine</t>
+  </si>
+  <si>
+    <t>Onabotulinum Toxin A</t>
+  </si>
+  <si>
+    <t>Duloxetine</t>
+  </si>
+  <si>
+    <t>NO NODE</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Pregabalin (antiepileptic)</t>
+  </si>
+  <si>
+    <t>Polydimethylsiloxane (bulking agent)</t>
+  </si>
+  <si>
+    <t>Tropsium chloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxybutynin 2.6 mg </t>
+  </si>
+  <si>
+    <t>Oxybutynin 3.9 mg</t>
+  </si>
+  <si>
+    <t>Solifenacin</t>
+  </si>
+  <si>
+    <t>Darifenacin</t>
+  </si>
+  <si>
+    <t>Fesoterodine, vaginal estrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregabalin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolterodine + pregabalin </t>
+  </si>
+  <si>
+    <t>Pregabalin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENS </t>
+  </si>
+  <si>
+    <t>InterStim™</t>
+  </si>
+  <si>
+    <t>Onabotulinum toxin A</t>
+  </si>
+  <si>
+    <t>T2+??</t>
+  </si>
+  <si>
+    <t>T1+T2+T4+N4</t>
+  </si>
+  <si>
+    <t>T2+T4</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>N4+T9</t>
+  </si>
+  <si>
+    <t>N4+T4+??</t>
+  </si>
+  <si>
+    <t>C5+H1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1432,6 +1661,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1699,16 +1931,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="B268" workbookViewId="0">
+      <selection activeCell="M280" sqref="M280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="12" max="12" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.83203125" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
@@ -23964,8 +24197,1893 @@
         <v>226</v>
       </c>
     </row>
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="L242" t="s">
+        <v>145</v>
+      </c>
+      <c r="M242" t="s">
+        <v>75</v>
+      </c>
+      <c r="N242" t="s">
+        <v>50</v>
+      </c>
+      <c r="O242" t="s">
+        <v>75</v>
+      </c>
+      <c r="P242" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>453</v>
+      </c>
+      <c r="T242" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="L243" t="s">
+        <v>395</v>
+      </c>
+      <c r="M243" t="s">
+        <v>75</v>
+      </c>
+      <c r="N243" t="s">
+        <v>35</v>
+      </c>
+      <c r="O243" t="s">
+        <v>75</v>
+      </c>
+      <c r="P243" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>453</v>
+      </c>
+      <c r="T243" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="L244" t="s">
+        <v>456</v>
+      </c>
+      <c r="M244" t="s">
+        <v>75</v>
+      </c>
+      <c r="N244" t="s">
+        <v>35</v>
+      </c>
+      <c r="O244" t="s">
+        <v>75</v>
+      </c>
+      <c r="P244" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>453</v>
+      </c>
+      <c r="T244" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="L245" t="s">
+        <v>212</v>
+      </c>
+      <c r="M245" t="s">
+        <v>75</v>
+      </c>
+      <c r="N245" t="s">
+        <v>35</v>
+      </c>
+      <c r="O245" t="s">
+        <v>75</v>
+      </c>
+      <c r="P245" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>453</v>
+      </c>
+      <c r="T245" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="L246" t="s">
+        <v>521</v>
+      </c>
+      <c r="M246" t="s">
+        <v>75</v>
+      </c>
+      <c r="N246" t="s">
+        <v>35</v>
+      </c>
+      <c r="O246" t="s">
+        <v>75</v>
+      </c>
+      <c r="P246" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>453</v>
+      </c>
+      <c r="T246" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="L247" t="s">
+        <v>9</v>
+      </c>
+      <c r="M247" t="s">
+        <v>75</v>
+      </c>
+      <c r="N247" t="s">
+        <v>50</v>
+      </c>
+      <c r="O247" t="s">
+        <v>75</v>
+      </c>
+      <c r="P247" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>453</v>
+      </c>
+      <c r="T247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="L248" t="s">
+        <v>65</v>
+      </c>
+      <c r="M248" t="s">
+        <v>75</v>
+      </c>
+      <c r="N248" t="s">
+        <v>35</v>
+      </c>
+      <c r="O248" t="s">
+        <v>75</v>
+      </c>
+      <c r="P248" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>453</v>
+      </c>
+      <c r="T248" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="L249" t="s">
+        <v>462</v>
+      </c>
+      <c r="M249" t="s">
+        <v>75</v>
+      </c>
+      <c r="N249" t="s">
+        <v>35</v>
+      </c>
+      <c r="O249" t="s">
+        <v>75</v>
+      </c>
+      <c r="P249" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>453</v>
+      </c>
+      <c r="T249" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="L250" t="s">
+        <v>34</v>
+      </c>
+      <c r="M250" t="s">
+        <v>75</v>
+      </c>
+      <c r="N250" t="s">
+        <v>35</v>
+      </c>
+      <c r="O250" t="s">
+        <v>75</v>
+      </c>
+      <c r="P250" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>453</v>
+      </c>
+      <c r="T250" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="L251" t="s">
+        <v>190</v>
+      </c>
+      <c r="M251" t="s">
+        <v>75</v>
+      </c>
+      <c r="N251" t="s">
+        <v>35</v>
+      </c>
+      <c r="O251" t="s">
+        <v>75</v>
+      </c>
+      <c r="P251" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>453</v>
+      </c>
+      <c r="T251" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="L252" t="s">
+        <v>126</v>
+      </c>
+      <c r="M252" t="s">
+        <v>75</v>
+      </c>
+      <c r="N252" t="s">
+        <v>50</v>
+      </c>
+      <c r="O252" t="s">
+        <v>75</v>
+      </c>
+      <c r="P252" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>453</v>
+      </c>
+      <c r="T252" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="L253" t="s">
+        <v>146</v>
+      </c>
+      <c r="M253" t="s">
+        <v>75</v>
+      </c>
+      <c r="N253" t="s">
+        <v>50</v>
+      </c>
+      <c r="O253" t="s">
+        <v>75</v>
+      </c>
+      <c r="P253" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>453</v>
+      </c>
+      <c r="T253" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="L254" t="s">
+        <v>115</v>
+      </c>
+      <c r="M254" t="s">
+        <v>75</v>
+      </c>
+      <c r="N254" t="s">
+        <v>116</v>
+      </c>
+      <c r="O254" t="s">
+        <v>75</v>
+      </c>
+      <c r="P254" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>453</v>
+      </c>
+      <c r="T254" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="L255" t="s">
+        <v>290</v>
+      </c>
+      <c r="M255" t="s">
+        <v>75</v>
+      </c>
+      <c r="N255" t="s">
+        <v>116</v>
+      </c>
+      <c r="O255" t="s">
+        <v>75</v>
+      </c>
+      <c r="P255" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>453</v>
+      </c>
+      <c r="T255" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="L256" t="s">
+        <v>99</v>
+      </c>
+      <c r="M256" t="s">
+        <v>75</v>
+      </c>
+      <c r="N256" t="s">
+        <v>99</v>
+      </c>
+      <c r="O256" t="s">
+        <v>75</v>
+      </c>
+      <c r="P256" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>453</v>
+      </c>
+      <c r="T256" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="257" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="L257" t="s">
+        <v>145</v>
+      </c>
+      <c r="M257" t="s">
+        <v>65</v>
+      </c>
+      <c r="N257" t="s">
+        <v>50</v>
+      </c>
+      <c r="O257" t="s">
+        <v>35</v>
+      </c>
+      <c r="P257" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>461</v>
+      </c>
+      <c r="T257" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="258" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="L258" t="s">
+        <v>122</v>
+      </c>
+      <c r="M258" t="s">
+        <v>33</v>
+      </c>
+      <c r="N258" t="s">
+        <v>35</v>
+      </c>
+      <c r="O258" t="s">
+        <v>35</v>
+      </c>
+      <c r="P258" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>471</v>
+      </c>
+      <c r="T258" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="259" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="L259" t="s">
+        <v>445</v>
+      </c>
+      <c r="M259" t="s">
+        <v>33</v>
+      </c>
+      <c r="N259" t="s">
+        <v>35</v>
+      </c>
+      <c r="O259" t="s">
+        <v>35</v>
+      </c>
+      <c r="P259" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>471</v>
+      </c>
+      <c r="T259" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="260" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="L260" t="s">
+        <v>445</v>
+      </c>
+      <c r="M260" t="s">
+        <v>159</v>
+      </c>
+      <c r="N260" t="s">
+        <v>35</v>
+      </c>
+      <c r="O260" t="s">
+        <v>35</v>
+      </c>
+      <c r="P260" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>463</v>
+      </c>
+      <c r="T260" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="261" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="L261" t="s">
+        <v>212</v>
+      </c>
+      <c r="M261" t="s">
+        <v>473</v>
+      </c>
+      <c r="N261" t="s">
+        <v>35</v>
+      </c>
+      <c r="O261" t="s">
+        <v>35</v>
+      </c>
+      <c r="P261" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>475</v>
+      </c>
+      <c r="T261" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="262" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="L262" t="s">
+        <v>456</v>
+      </c>
+      <c r="M262" t="s">
+        <v>65</v>
+      </c>
+      <c r="N262" t="s">
+        <v>35</v>
+      </c>
+      <c r="O262" t="s">
+        <v>35</v>
+      </c>
+      <c r="P262" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>461</v>
+      </c>
+      <c r="T262" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="263" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="L263" t="s">
+        <v>212</v>
+      </c>
+      <c r="M263" t="s">
+        <v>105</v>
+      </c>
+      <c r="N263" t="s">
+        <v>35</v>
+      </c>
+      <c r="O263" t="s">
+        <v>35</v>
+      </c>
+      <c r="P263" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>478</v>
+      </c>
+      <c r="T263" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="264" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="L264" t="s">
+        <v>522</v>
+      </c>
+      <c r="M264" t="s">
+        <v>523</v>
+      </c>
+      <c r="N264" t="s">
+        <v>116</v>
+      </c>
+      <c r="O264" t="s">
+        <v>35</v>
+      </c>
+      <c r="P264" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>457</v>
+      </c>
+      <c r="T264" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="265" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="L265" t="s">
+        <v>522</v>
+      </c>
+      <c r="M265" t="s">
+        <v>122</v>
+      </c>
+      <c r="N265" t="s">
+        <v>116</v>
+      </c>
+      <c r="O265" t="s">
+        <v>35</v>
+      </c>
+      <c r="P265" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>480</v>
+      </c>
+      <c r="T265" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="266" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="L266" t="s">
+        <v>521</v>
+      </c>
+      <c r="M266" t="s">
+        <v>105</v>
+      </c>
+      <c r="N266" t="s">
+        <v>35</v>
+      </c>
+      <c r="O266" t="s">
+        <v>35</v>
+      </c>
+      <c r="P266" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>478</v>
+      </c>
+      <c r="T266" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="267" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="L267" t="s">
+        <v>189</v>
+      </c>
+      <c r="M267" t="s">
+        <v>190</v>
+      </c>
+      <c r="N267" t="s">
+        <v>35</v>
+      </c>
+      <c r="O267" t="s">
+        <v>35</v>
+      </c>
+      <c r="P267" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>465</v>
+      </c>
+      <c r="T267" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="268" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="L268" t="s">
+        <v>65</v>
+      </c>
+      <c r="M268" t="s">
+        <v>33</v>
+      </c>
+      <c r="N268" t="s">
+        <v>35</v>
+      </c>
+      <c r="O268" t="s">
+        <v>35</v>
+      </c>
+      <c r="P268" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>471</v>
+      </c>
+      <c r="T268" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="269" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="L269" t="s">
+        <v>65</v>
+      </c>
+      <c r="M269" t="s">
+        <v>105</v>
+      </c>
+      <c r="N269" t="s">
+        <v>35</v>
+      </c>
+      <c r="O269" t="s">
+        <v>35</v>
+      </c>
+      <c r="P269" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>478</v>
+      </c>
+      <c r="T269" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="270" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="L270" t="s">
+        <v>65</v>
+      </c>
+      <c r="M270" t="s">
+        <v>65</v>
+      </c>
+      <c r="N270" t="s">
+        <v>35</v>
+      </c>
+      <c r="O270" t="s">
+        <v>35</v>
+      </c>
+      <c r="P270" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>483</v>
+      </c>
+      <c r="T270" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="271" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="L271" t="s">
+        <v>65</v>
+      </c>
+      <c r="M271" t="s">
+        <v>65</v>
+      </c>
+      <c r="N271" t="s">
+        <v>35</v>
+      </c>
+      <c r="O271" t="s">
+        <v>35</v>
+      </c>
+      <c r="P271" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>485</v>
+      </c>
+      <c r="T271" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="272" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="L272" t="s">
+        <v>65</v>
+      </c>
+      <c r="M272" t="s">
+        <v>524</v>
+      </c>
+      <c r="N272" t="s">
+        <v>35</v>
+      </c>
+      <c r="O272" t="s">
+        <v>35</v>
+      </c>
+      <c r="P272" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>486</v>
+      </c>
+      <c r="T272" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="273" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="L273" t="s">
+        <v>34</v>
+      </c>
+      <c r="M273" t="s">
+        <v>33</v>
+      </c>
+      <c r="N273" t="s">
+        <v>35</v>
+      </c>
+      <c r="O273" t="s">
+        <v>35</v>
+      </c>
+      <c r="P273" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>471</v>
+      </c>
+      <c r="T273" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="274" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="L274" t="s">
+        <v>462</v>
+      </c>
+      <c r="M274" t="s">
+        <v>33</v>
+      </c>
+      <c r="N274" t="s">
+        <v>35</v>
+      </c>
+      <c r="O274" t="s">
+        <v>35</v>
+      </c>
+      <c r="P274" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>471</v>
+      </c>
+      <c r="T274" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="275" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="L275" t="s">
+        <v>462</v>
+      </c>
+      <c r="M275" t="s">
+        <v>65</v>
+      </c>
+      <c r="N275" t="s">
+        <v>35</v>
+      </c>
+      <c r="O275" t="s">
+        <v>35</v>
+      </c>
+      <c r="P275" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>461</v>
+      </c>
+      <c r="T275" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="276" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="L276" t="s">
+        <v>462</v>
+      </c>
+      <c r="M276" t="s">
+        <v>34</v>
+      </c>
+      <c r="N276" t="s">
+        <v>35</v>
+      </c>
+      <c r="O276" t="s">
+        <v>35</v>
+      </c>
+      <c r="P276" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>464</v>
+      </c>
+      <c r="T276" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="277" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="L277" t="s">
+        <v>487</v>
+      </c>
+      <c r="M277" t="s">
+        <v>65</v>
+      </c>
+      <c r="N277" t="s">
+        <v>35</v>
+      </c>
+      <c r="O277" t="s">
+        <v>35</v>
+      </c>
+      <c r="P277" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>461</v>
+      </c>
+      <c r="T277" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="278" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="L278" t="s">
+        <v>462</v>
+      </c>
+      <c r="M278" t="s">
+        <v>462</v>
+      </c>
+      <c r="N278" t="s">
+        <v>35</v>
+      </c>
+      <c r="O278" t="s">
+        <v>35</v>
+      </c>
+      <c r="P278" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>489</v>
+      </c>
+      <c r="T278" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="279" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="L279" t="s">
+        <v>524</v>
+      </c>
+      <c r="M279" t="s">
+        <v>524</v>
+      </c>
+      <c r="N279" t="s">
+        <v>35</v>
+      </c>
+      <c r="O279" t="s">
+        <v>50</v>
+      </c>
+      <c r="P279" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>467</v>
+      </c>
+      <c r="T279" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="280" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="L280" t="s">
+        <v>524</v>
+      </c>
+      <c r="M280" t="s">
+        <v>524</v>
+      </c>
+      <c r="N280" t="s">
+        <v>50</v>
+      </c>
+      <c r="O280" t="s">
+        <v>50</v>
+      </c>
+      <c r="P280" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>491</v>
+      </c>
+      <c r="T280" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="281" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="L281" t="s">
+        <v>522</v>
+      </c>
+      <c r="M281" t="s">
+        <v>65</v>
+      </c>
+      <c r="N281" t="s">
+        <v>116</v>
+      </c>
+      <c r="O281" t="s">
+        <v>35</v>
+      </c>
+      <c r="P281" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>461</v>
+      </c>
+      <c r="T281" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="282" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="L282" t="s">
+        <v>525</v>
+      </c>
+      <c r="M282" t="s">
+        <v>65</v>
+      </c>
+      <c r="N282" t="s">
+        <v>116</v>
+      </c>
+      <c r="O282" t="s">
+        <v>35</v>
+      </c>
+      <c r="P282" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>461</v>
+      </c>
+      <c r="T282" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="283" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="L283" t="s">
+        <v>115</v>
+      </c>
+      <c r="M283" t="s">
+        <v>33</v>
+      </c>
+      <c r="N283" t="s">
+        <v>116</v>
+      </c>
+      <c r="O283" t="s">
+        <v>35</v>
+      </c>
+      <c r="P283" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>471</v>
+      </c>
+      <c r="T283" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="284" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="L284" t="s">
+        <v>115</v>
+      </c>
+      <c r="M284" t="s">
+        <v>65</v>
+      </c>
+      <c r="N284" t="s">
+        <v>116</v>
+      </c>
+      <c r="O284" t="s">
+        <v>35</v>
+      </c>
+      <c r="P284" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>461</v>
+      </c>
+      <c r="T284" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="285" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="L285" t="s">
+        <v>526</v>
+      </c>
+      <c r="M285" t="s">
+        <v>34</v>
+      </c>
+      <c r="N285" t="s">
+        <v>116</v>
+      </c>
+      <c r="O285" t="s">
+        <v>35</v>
+      </c>
+      <c r="P285" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>464</v>
+      </c>
+      <c r="T285" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="286" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="L286" t="s">
+        <v>290</v>
+      </c>
+      <c r="M286" t="s">
+        <v>9</v>
+      </c>
+      <c r="N286" t="s">
+        <v>116</v>
+      </c>
+      <c r="O286" t="s">
+        <v>50</v>
+      </c>
+      <c r="P286" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>495</v>
+      </c>
+      <c r="T286" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="287" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="L287" t="s">
+        <v>290</v>
+      </c>
+      <c r="M287" t="s">
+        <v>290</v>
+      </c>
+      <c r="N287" t="s">
+        <v>116</v>
+      </c>
+      <c r="O287" t="s">
+        <v>116</v>
+      </c>
+      <c r="P287" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>497</v>
+      </c>
+      <c r="T287" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="288" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="L288" t="s">
+        <v>498</v>
+      </c>
+      <c r="M288" t="s">
+        <v>75</v>
+      </c>
+      <c r="N288" t="s">
+        <v>59</v>
+      </c>
+      <c r="O288" t="s">
+        <v>75</v>
+      </c>
+      <c r="P288" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>500</v>
+      </c>
+      <c r="T288" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="289" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="L289" t="s">
+        <v>73</v>
+      </c>
+      <c r="M289" t="s">
+        <v>75</v>
+      </c>
+      <c r="N289" t="s">
+        <v>59</v>
+      </c>
+      <c r="O289" t="s">
+        <v>75</v>
+      </c>
+      <c r="P289" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>500</v>
+      </c>
+      <c r="T289" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="290" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="L290" t="s">
+        <v>58</v>
+      </c>
+      <c r="M290" t="s">
+        <v>75</v>
+      </c>
+      <c r="N290" t="s">
+        <v>59</v>
+      </c>
+      <c r="O290" t="s">
+        <v>75</v>
+      </c>
+      <c r="P290" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>500</v>
+      </c>
+      <c r="T290" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="291" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="L291" t="s">
+        <v>49</v>
+      </c>
+      <c r="M291" t="s">
+        <v>75</v>
+      </c>
+      <c r="N291" t="s">
+        <v>49</v>
+      </c>
+      <c r="O291" t="s">
+        <v>75</v>
+      </c>
+      <c r="P291" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>500</v>
+      </c>
+      <c r="T291" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="292" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="L292" t="s">
+        <v>271</v>
+      </c>
+      <c r="M292" t="s">
+        <v>75</v>
+      </c>
+      <c r="N292" t="s">
+        <v>176</v>
+      </c>
+      <c r="O292" t="s">
+        <v>75</v>
+      </c>
+      <c r="P292" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>500</v>
+      </c>
+      <c r="T292" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="293" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="L293" t="s">
+        <v>505</v>
+      </c>
+      <c r="M293" t="s">
+        <v>75</v>
+      </c>
+      <c r="N293" t="s">
+        <v>506</v>
+      </c>
+      <c r="O293" t="s">
+        <v>75</v>
+      </c>
+      <c r="P293" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>500</v>
+      </c>
+      <c r="T293" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="294" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="L294" t="s">
+        <v>314</v>
+      </c>
+      <c r="M294" t="s">
+        <v>75</v>
+      </c>
+      <c r="N294" t="s">
+        <v>82</v>
+      </c>
+      <c r="O294" t="s">
+        <v>75</v>
+      </c>
+      <c r="P294" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>453</v>
+      </c>
+      <c r="T294" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="295" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="L295" t="s">
+        <v>73</v>
+      </c>
+      <c r="M295" t="s">
+        <v>58</v>
+      </c>
+      <c r="N295" t="s">
+        <v>59</v>
+      </c>
+      <c r="O295" t="s">
+        <v>59</v>
+      </c>
+      <c r="P295" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>502</v>
+      </c>
+      <c r="T295" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="296" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="L296" t="s">
+        <v>73</v>
+      </c>
+      <c r="M296" t="s">
+        <v>136</v>
+      </c>
+      <c r="N296" t="s">
+        <v>59</v>
+      </c>
+      <c r="O296" t="s">
+        <v>59</v>
+      </c>
+      <c r="P296" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>509</v>
+      </c>
+      <c r="T296" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="297" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="L297" t="s">
+        <v>73</v>
+      </c>
+      <c r="M297" t="s">
+        <v>73</v>
+      </c>
+      <c r="N297" t="s">
+        <v>59</v>
+      </c>
+      <c r="O297" t="s">
+        <v>59</v>
+      </c>
+      <c r="P297" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>511</v>
+      </c>
+      <c r="T297" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="298" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="L298" t="s">
+        <v>68</v>
+      </c>
+      <c r="M298" t="s">
+        <v>524</v>
+      </c>
+      <c r="N298" t="s">
+        <v>59</v>
+      </c>
+      <c r="O298" t="s">
+        <v>59</v>
+      </c>
+      <c r="P298" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>513</v>
+      </c>
+      <c r="T298" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="299" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="L299" t="s">
+        <v>68</v>
+      </c>
+      <c r="M299" t="s">
+        <v>49</v>
+      </c>
+      <c r="N299" t="s">
+        <v>59</v>
+      </c>
+      <c r="O299" t="s">
+        <v>49</v>
+      </c>
+      <c r="P299" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>503</v>
+      </c>
+      <c r="T299" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="300" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="L300" t="s">
+        <v>498</v>
+      </c>
+      <c r="M300" t="s">
+        <v>527</v>
+      </c>
+      <c r="N300" t="s">
+        <v>59</v>
+      </c>
+      <c r="O300" t="s">
+        <v>412</v>
+      </c>
+      <c r="P300" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>514</v>
+      </c>
+      <c r="T300" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="301" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="L301" t="s">
+        <v>58</v>
+      </c>
+      <c r="M301" t="s">
+        <v>506</v>
+      </c>
+      <c r="N301" t="s">
+        <v>59</v>
+      </c>
+      <c r="O301" t="s">
+        <v>506</v>
+      </c>
+      <c r="P301" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>515</v>
+      </c>
+      <c r="T301" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="302" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="L302" t="s">
+        <v>524</v>
+      </c>
+      <c r="M302" t="s">
+        <v>506</v>
+      </c>
+      <c r="N302" t="s">
+        <v>59</v>
+      </c>
+      <c r="O302" t="s">
+        <v>506</v>
+      </c>
+      <c r="P302" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>517</v>
+      </c>
+      <c r="T302" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="303" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="L303" t="s">
+        <v>212</v>
+      </c>
+      <c r="M303" t="s">
+        <v>73</v>
+      </c>
+      <c r="N303" t="s">
+        <v>35</v>
+      </c>
+      <c r="O303" t="s">
+        <v>59</v>
+      </c>
+      <c r="P303" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>501</v>
+      </c>
+      <c r="T303" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="304" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="L304" t="s">
+        <v>65</v>
+      </c>
+      <c r="M304" t="s">
+        <v>58</v>
+      </c>
+      <c r="N304" t="s">
+        <v>35</v>
+      </c>
+      <c r="O304" t="s">
+        <v>59</v>
+      </c>
+      <c r="P304" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>502</v>
+      </c>
+      <c r="T304" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="305" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="L305" t="s">
+        <v>146</v>
+      </c>
+      <c r="M305" t="s">
+        <v>58</v>
+      </c>
+      <c r="N305" t="s">
+        <v>50</v>
+      </c>
+      <c r="O305" t="s">
+        <v>59</v>
+      </c>
+      <c r="P305" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>502</v>
+      </c>
+      <c r="T305" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="306" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="L306" t="s">
+        <v>10</v>
+      </c>
+      <c r="M306" t="s">
+        <v>49</v>
+      </c>
+      <c r="N306" t="s">
+        <v>50</v>
+      </c>
+      <c r="O306" t="s">
+        <v>49</v>
+      </c>
+      <c r="P306" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>520</v>
+      </c>
+      <c r="T306" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="N1:N241"/>
+  <autoFilter ref="N1:N241" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>